--- a/src/main/java/com/roc/SuperMaster/utility/bigSet/resource/Java 集合和数组.xlsx
+++ b/src/main/java/com/roc/SuperMaster/utility/bigSet/resource/Java 集合和数组.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roc\Desktop\SuperMaster\src\main\java\com\roc\SuperMaster\utility\bigSet\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5328006-082A-4FAB-8A5D-55EA3632F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11925"/>
+    <workbookView xWindow="-21710" yWindow="-920" windowWidth="21820" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Roc</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>集合类</t>
   </si>
@@ -109,9 +115,6 @@
   </si>
   <si>
     <t>数据类型</t>
-  </si>
-  <si>
-    <t>基本类型/引用类型</t>
   </si>
   <si>
     <t>基本类型/应用类型</t>
@@ -285,18 +288,24 @@
   <si>
     <t>被淘汰，可使用HashMap</t>
   </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要排序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,164 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -488,8 +339,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,194 +380,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -761,253 +441,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1027,99 +465,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1135,13 +544,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1173,13 +588,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1451,21 +872,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="6" width="15.5" style="2" customWidth="1"/>
@@ -1476,29 +896,29 @@
     <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1" spans="1:10">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="38.25" customHeight="1" spans="1:10">
+    <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1548,269 +968,271 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="21.75" customHeight="1" spans="1:10">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="J9" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:10">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1818,65 +1240,65 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" ht="21.75" customHeight="1" spans="1:10">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:11">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="15"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/src/main/java/com/roc/SuperMaster/utility/bigSet/resource/Java 集合和数组.xlsx
+++ b/src/main/java/com/roc/SuperMaster/utility/bigSet/resource/Java 集合和数组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roc\Desktop\SuperMaster\src\main\java\com\roc\SuperMaster\utility\bigSet\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5328006-082A-4FAB-8A5D-55EA3632F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10142402-DF4F-403E-85EC-FB8AFE8B2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21710" yWindow="-920" windowWidth="21820" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-920" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>数据类型</t>
   </si>
   <si>
-    <t>基本类型/应用类型</t>
-  </si>
-  <si>
     <t>数据类型的种类</t>
   </si>
   <si>
@@ -298,6 +295,10 @@
   </si>
   <si>
     <t>引用类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型/引用类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -480,6 +481,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,24 +506,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,7 +883,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I4"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,20 +901,20 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
@@ -977,262 +978,262 @@
         <v>20</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>72</v>
+      <c r="J9" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1242,41 +1243,41 @@
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="11"/>

--- a/src/main/java/com/roc/SuperMaster/utility/bigSet/resource/Java 集合和数组.xlsx
+++ b/src/main/java/com/roc/SuperMaster/utility/bigSet/resource/Java 集合和数组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roc\Desktop\SuperMaster\src\main\java\com\roc\SuperMaster\utility\bigSet\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10142402-DF4F-403E-85EC-FB8AFE8B2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380FA4D8-F757-47B6-8922-AD7C0DF055CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21710" yWindow="-920" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>集合类</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>双向链表</t>
-  </si>
-  <si>
-    <t>哈希表实现</t>
   </si>
   <si>
     <t>二叉树实现</t>
@@ -299,6 +296,18 @@
   </si>
   <si>
     <t>基本类型/引用类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表（数组+链表+红黑树）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,9 +974,15 @@
         <v>18</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="s">
         <v>19</v>
@@ -978,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -988,7 +1003,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
       <c r="J4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1086,7 +1101,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>33</v>
@@ -1130,7 +1145,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,29 +1223,29 @@
       <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -1243,10 +1258,10 @@
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1259,25 +1274,25 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="11"/>
